--- a/Planbeispiele_mit_Flaechen/P19102081001/Flächen vergleich.xlsx
+++ b/Planbeispiele_mit_Flaechen/P19102081001/Flächen vergleich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\semester_7\3_IP6\IP6_ModellingBuildingEnvelopes\Planbeispiele_mit_Flaechen\P19102081001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FSiffer/Documents/Projects/Studium/Projects/IP6 Modelling Building Envelopes/repo/Planbeispiele_mit_Flaechen/P19102081001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735C4C5C-A537-401F-AB8E-D12D86D3BA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F37AD9-5EB2-C842-907C-EC89818E1A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19400" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istzustand" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>HR</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Original</t>
   </si>
   <si>
-    <t>Sketchup</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -177,13 +174,19 @@
   </si>
   <si>
     <t>DA 1</t>
+  </si>
+  <si>
+    <t>AF 1</t>
+  </si>
+  <si>
+    <t>AF 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +320,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -740,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -760,8 +776,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1118,15 +1141,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1151,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>192.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1270,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1334,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1363,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1424,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1456,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1488,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1552,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1616,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="19" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K20" s="7"/>
       <c r="L20" s="8" t="s">
         <v>20</v>
@@ -1678,7 +1701,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="21" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
         <v>36</v>
@@ -1698,7 +1721,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K22" s="7"/>
       <c r="L22" s="8" t="s">
         <v>31</v>
@@ -1720,7 +1743,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="23" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
         <v>23</v>
@@ -1742,7 +1765,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="24" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K24" s="7"/>
       <c r="L24" s="8" t="s">
         <v>11</v>
@@ -1762,7 +1785,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="25" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
         <v>12</v>
@@ -1782,7 +1805,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="26" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K26" s="7"/>
       <c r="L26" s="8" t="s">
         <v>15</v>
@@ -1802,7 +1825,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
         <v>26</v>
@@ -1822,7 +1845,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K28" s="7"/>
       <c r="L28" s="8" t="s">
         <v>37</v>
@@ -1846,10 +1869,10 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="29" spans="11:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K29" s="11"/>
       <c r="L29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="13">
         <f>SUM(M20:M28)</f>
@@ -1876,143 +1899,187 @@
         <v>316.89999999999998</v>
       </c>
       <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="11:23" x14ac:dyDescent="0.2">
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="K31" s="3" t="s">
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K31" s="15"/>
+      <c r="L31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="4" t="s">
+      <c r="T31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="8"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K32" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="K32" s="15"/>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="19">
+        <v>50.48</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19">
+        <v>45.21</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19">
+        <v>31.88</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="20">
+        <v>163.77000000000001</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="9">
-        <v>50.77</v>
-      </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9">
-        <v>45.18</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9">
-        <v>50.82</v>
-      </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9">
-        <v>45.18</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="10">
-        <v>191.94</v>
-      </c>
-    </row>
-    <row r="33" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="K33" s="15"/>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19">
+        <v>64.64</v>
+      </c>
+      <c r="U33" s="20">
+        <v>64.64</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K34" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9">
-        <v>64.83</v>
-      </c>
-      <c r="V33" s="10">
-        <v>64.83</v>
-      </c>
-    </row>
-    <row r="34" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="K34" s="15"/>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="U34" s="20">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="V34" s="10">
-        <v>69.010000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="K35" s="16"/>
-      <c r="L35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="13">
-        <v>50.77</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13">
-        <v>45.18</v>
-      </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13">
-        <v>50.82</v>
-      </c>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13">
-        <v>45.18</v>
-      </c>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13">
-        <v>133.84</v>
-      </c>
-      <c r="V35" s="14">
-        <v>325.77999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="11:22" x14ac:dyDescent="0.45">
-      <c r="L36" s="2"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19">
+        <v>9.01</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20">
+        <v>9.01</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="20">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="11:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="K37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="22">
+        <v>50.48</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22">
+        <v>45.21</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22">
+        <v>50.46</v>
+      </c>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22">
+        <v>45.21</v>
+      </c>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22">
+        <v>133.68</v>
+      </c>
+      <c r="U37" s="23">
+        <v>325.04000000000002</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0000-000000000000}">
